--- a/DATA_goal/Junction_Flooding_163.xlsx
+++ b/DATA_goal/Junction_Flooding_163.xlsx
@@ -456,12 +456,12 @@
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -475,7 +475,7 @@
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41595.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.56</v>
+        <v>3.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.99</v>
+        <v>2.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.21</v>
+        <v>3.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>3.09</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>167.74</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>30.92</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41595.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>40.79</v>
+        <v>4.08</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>32.52</v>
+        <v>3.25</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.57</v>
+        <v>1.46</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>55.1</v>
+        <v>5.51</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>22.69</v>
+        <v>2.27</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>14.48</v>
+        <v>1.45</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>16.25</v>
+        <v>1.62</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>17.24</v>
+        <v>1.72</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>215.86</v>
+        <v>21.59</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>40.99</v>
+        <v>4.1</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>27.18</v>
+        <v>2.72</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.57</v>
+        <v>0.26</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.95</v>
+        <v>1.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>12.65</v>
+        <v>1.27</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>50.46</v>
+        <v>5.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.52</v>
+        <v>0.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>16.92</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41595.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.49</v>
+        <v>0.15</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.76</v>
+        <v>0.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.54</v>
+        <v>2.25</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.8</v>
+        <v>0.18</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.75</v>
+        <v>0.37</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>0.18</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.44</v>
+        <v>0.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41595.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P5" s="4" t="n">
         <v>0.79</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>20.91</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>5.64</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>7.87</v>
-      </c>
       <c r="Q5" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>78.47</v>
+        <v>7.85</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>15.65</v>
+        <v>1.56</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.21</v>
+        <v>0.52</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.26</v>
+        <v>1.03</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.18</v>
+        <v>0.42</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.85</v>
+        <v>1.88</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.84</v>
+        <v>0.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41595.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>23.39</v>
+        <v>2.34</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>51.07</v>
+        <v>5.11</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>41.67</v>
+        <v>4.17</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>18.35</v>
+        <v>1.84</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>67.45</v>
+        <v>6.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>12.62</v>
+        <v>1.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>18.7</v>
+        <v>1.87</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>20.45</v>
+        <v>2.05</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>21.7</v>
+        <v>2.17</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>18.35</v>
+        <v>1.83</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>271.94</v>
+        <v>27.19</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>51.23</v>
+        <v>5.12</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>16.93</v>
+        <v>1.69</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>34.47</v>
+        <v>3.45</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>18.1</v>
+        <v>1.81</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>33.55</v>
+        <v>3.36</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>14.96</v>
+        <v>1.5</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>21.38</v>
+        <v>2.14</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>61.3</v>
+        <v>6.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>9.550000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>21.17</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41595.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>13.03</v>
+        <v>1.3</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>38.31</v>
+        <v>3.83</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>31.21</v>
+        <v>3.12</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>13.75</v>
+        <v>1.38</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>55.23</v>
+        <v>5.52</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>13.99</v>
+        <v>1.4</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>19.6</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>202.13</v>
+        <v>20.21</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>38.53</v>
+        <v>3.85</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>25.9</v>
+        <v>2.59</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.02</v>
+        <v>0.2</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.68</v>
+        <v>2.67</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>11.69</v>
+        <v>1.17</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>16.03</v>
+        <v>1.6</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>50.35</v>
+        <v>5.04</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41595.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>4.26</v>
+        <v>0.43</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>12.8</v>
+        <v>1.28</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>22.72</v>
+        <v>2.27</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>7.1</v>
+        <v>0.71</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="R8" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V8" s="4" t="n">
         <v>0.42</v>
       </c>
-      <c r="S8" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>62.53</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>4.23</v>
-      </c>
       <c r="W8" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>4.5</v>
+        <v>0.45</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>3.95</v>
+        <v>0.4</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>21.02</v>
+        <v>2.1</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41595.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.45</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.5</v>
+        <v>0.55</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.35</v>
+        <v>1.63</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>23.17</v>
+        <v>2.32</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>3.99</v>
+        <v>0.4</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.01</v>
+        <v>0.5</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>81.93000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.38</v>
+        <v>1.64</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.98</v>
+        <v>2.1</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.02</v>
+        <v>0.3</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41595.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>22.62</v>
+        <v>2.26</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>18.38</v>
+        <v>1.84</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>30.75</v>
+        <v>3.07</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>5.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.119999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>11.54</v>
+        <v>1.15</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>116.27</v>
+        <v>11.63</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>22.67</v>
+        <v>2.27</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>15.02</v>
+        <v>1.5</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>6.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>9.460000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>27.88</v>
+        <v>2.79</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.21</v>
+        <v>0.42</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_163.xlsx
+++ b/DATA_goal/Junction_Flooding_163.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44844.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44844.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.89</v>
+        <v>18.95</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.73</v>
+        <v>37.33</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.15</v>
+        <v>31.54</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.47</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.74</v>
+        <v>47.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.11</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.02</v>
+        <v>20.24</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>203.98</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>38.71</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>26.43</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>13.46</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>11.41</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>1.13</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>4.22</v>
+        <v>42.2</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44844.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.52</v>
+        <v>25.24</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.52</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.24</v>
+        <v>52.41</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.38</v>
+        <v>43.81</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>7.39</v>
+        <v>73.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.33</v>
+        <v>13.31</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.05</v>
+        <v>20.46</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.77</v>
+        <v>27.75</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.69</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>28.43</v>
+        <v>284.29</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.36</v>
+        <v>53.61</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.64</v>
+        <v>36.41</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.59</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.94</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.29</v>
+        <v>22.91</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.69</v>
+        <v>66.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.19</v>
+        <v>21.9</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44844.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.86</v>
+        <v>28.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.4</v>
+        <v>24.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.47</v>
+        <v>44.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.27</v>
+        <v>152.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.95</v>
+        <v>29.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.27</v>
+        <v>12.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.04</v>
+        <v>40.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.98</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_163.xlsx
+++ b/DATA_goal/Junction_Flooding_163.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44844.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,103 +759,103 @@
         <v>44844.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.95</v>
+        <v>18.947</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>13.45</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.33</v>
+        <v>37.331</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>31.54</v>
+        <v>31.543</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>14.47</v>
+        <v>14.468</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>47.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.83</v>
+        <v>20.827</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.59</v>
+        <v>9.587</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.327</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15.11</v>
+        <v>15.113</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.72</v>
+        <v>15.715</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.48</v>
+        <v>4.481</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.4</v>
+        <v>13.404</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>20.24</v>
+        <v>20.245</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>11.26</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>203.98</v>
+        <v>203.981</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>38.71</v>
+        <v>38.714</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>13.17</v>
+        <v>13.174</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>26.43</v>
+        <v>26.433</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>13.46</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.824</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.23</v>
+        <v>24.234</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>11.25</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.606999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.41</v>
+        <v>11.408</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>16.92</v>
+        <v>16.915</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>42.2</v>
+        <v>42.204</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>7.03</v>
+        <v>7.027</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.7</v>
+        <v>15.704</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44844.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>25.24</v>
+        <v>25.239</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.52</v>
+        <v>18.517</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.679</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.41</v>
+        <v>52.414</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.81</v>
+        <v>43.813</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.64</v>
+        <v>19.638</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>73.94</v>
+        <v>73.938</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.18</v>
+        <v>29.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.31</v>
+        <v>13.305</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>20.46</v>
+        <v>20.459</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.16</v>
+        <v>21.163</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.13</v>
+        <v>22.132</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.16</v>
+        <v>6.165</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.84</v>
+        <v>18.845</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.75</v>
+        <v>27.746</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.69</v>
+        <v>15.694</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.495</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.63</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.29</v>
+        <v>284.289</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.61</v>
+        <v>53.608</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.92</v>
+        <v>17.921</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>36.41</v>
+        <v>36.414</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.83</v>
+        <v>18.829</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.51</v>
+        <v>2.514</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>36.38</v>
+        <v>36.383</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.59</v>
+        <v>15.593</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.48</v>
+        <v>13.485</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.94</v>
+        <v>15.939</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.91</v>
+        <v>22.906</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>66.89</v>
+        <v>66.89400000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
         <v>9.890000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.9</v>
+        <v>21.899</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.98</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44844.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_163.xlsx
+++ b/DATA_goal/Junction_Flooding_163.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,70 +970,70 @@
         <v>13.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.21</v>
+        <v>10.207</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.331</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.6</v>
+        <v>28.599</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.01</v>
+        <v>24.011</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.87</v>
+        <v>10.868</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.68</v>
+        <v>44.685</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.91</v>
+        <v>15.906</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.32</v>
+        <v>7.316</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.33</v>
+        <v>11.327</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.6</v>
+        <v>11.597</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.04</v>
+        <v>12.036</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.39</v>
+        <v>3.386</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.29</v>
+        <v>10.287</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.34</v>
+        <v>15.341</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.57</v>
+        <v>8.574</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.312</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.74</v>
+        <v>152.739</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.54</v>
+        <v>29.535</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>9.884</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.06</v>
+        <v>20.064</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.3</v>
+        <v>10.301</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.38</v>
@@ -1045,25 +1045,129 @@
         <v>8.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.36</v>
+        <v>7.359</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.709</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.66</v>
+        <v>12.665</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.42</v>
+        <v>40.422</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.39</v>
+        <v>5.386</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.98</v>
+        <v>11.979</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44844.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_163.xlsx
+++ b/DATA_goal/Junction_Flooding_163.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -970,70 +970,70 @@
         <v>13.99</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.207</v>
+        <v>10.21</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.599</v>
+        <v>28.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.011</v>
+        <v>24.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.868</v>
+        <v>10.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>44.685</v>
+        <v>44.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.906</v>
+        <v>15.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.316</v>
+        <v>7.32</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.327</v>
+        <v>11.33</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.597</v>
+        <v>11.6</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.036</v>
+        <v>12.04</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.386</v>
+        <v>3.39</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.287</v>
+        <v>10.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.341</v>
+        <v>15.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.574</v>
+        <v>8.57</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.312</v>
+        <v>0.31</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>152.739</v>
+        <v>152.74</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>29.535</v>
+        <v>29.54</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.884</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.064</v>
+        <v>20.06</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.301</v>
+        <v>10.3</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>1.38</v>
@@ -1045,129 +1045,25 @@
         <v>8.56</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.359</v>
+        <v>7.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.709</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>12.665</v>
+        <v>12.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>40.422</v>
+        <v>40.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.386</v>
+        <v>5.39</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.979</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44844.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.33</v>
+        <v>11.98</v>
       </c>
     </row>
   </sheetData>
